--- a/source.xlsx
+++ b/source.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31575" windowHeight="17775"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$419</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="141">
   <si>
     <t>Item#</t>
   </si>
@@ -31,379 +31,415 @@
     <t>Inventory</t>
   </si>
   <si>
-    <t>TG-AMOR-1</t>
+    <t>FL-ACTIVE-10</t>
+  </si>
+  <si>
+    <t>BLACK NUBUCK</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>FL-ANIYA-78</t>
+  </si>
+  <si>
+    <t>BEIGE</t>
   </si>
   <si>
     <t>BLACK</t>
   </si>
   <si>
-    <t>MJ</t>
-  </si>
-  <si>
-    <t>MY</t>
+    <t>FL-ARCTIC-11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>BROWN</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>FL-AVA-07K</t>
+  </si>
+  <si>
+    <t>MINT</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>FL-AVA-08K</t>
+  </si>
+  <si>
+    <t>FL-BARLEY-4</t>
+  </si>
+  <si>
+    <t>GREY</t>
+  </si>
+  <si>
+    <t>MAUVE</t>
+  </si>
+  <si>
+    <t>PURPLE</t>
+  </si>
+  <si>
+    <t>FL-BARLEY-7</t>
+  </si>
+  <si>
+    <t>BLACK WHITE</t>
+  </si>
+  <si>
+    <t>FL-BELLA-03</t>
+  </si>
+  <si>
+    <t>CHAMPAGNE</t>
+  </si>
+  <si>
+    <t>FL-BELLA-08</t>
+  </si>
+  <si>
+    <t>SILVER</t>
+  </si>
+  <si>
+    <t>FL-BERK-14</t>
+  </si>
+  <si>
+    <t>LEOPARD</t>
+  </si>
+  <si>
+    <t>PINK TIE DYE</t>
+  </si>
+  <si>
+    <t>FL-BERK-23</t>
+  </si>
+  <si>
+    <t>FL-BLAZE-18</t>
+  </si>
+  <si>
+    <t>FL-BLAZE-18K</t>
+  </si>
+  <si>
+    <t>PINK</t>
+  </si>
+  <si>
+    <t>FL-BLAZE-38</t>
+  </si>
+  <si>
+    <t>ROSE GOLD</t>
+  </si>
+  <si>
+    <t>FL-CAMILA-16</t>
+  </si>
+  <si>
+    <t>SNAKE</t>
+  </si>
+  <si>
+    <t>FL-CAMILA-17</t>
+  </si>
+  <si>
+    <t>FL-CAMILA-47</t>
+  </si>
+  <si>
+    <t>FL-CAMILA-48</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>FL-CBC-78</t>
+  </si>
+  <si>
+    <t>NUDE</t>
+  </si>
+  <si>
+    <t>TAUPE</t>
+  </si>
+  <si>
+    <t>FL-CHIEF-88</t>
+  </si>
+  <si>
+    <t>WINE</t>
+  </si>
+  <si>
+    <t>FL-CLASS-20</t>
+  </si>
+  <si>
+    <t>FL-COMFORT-11</t>
+  </si>
+  <si>
+    <t>BLACK RED</t>
+  </si>
+  <si>
+    <t>BLACK PLAID</t>
+  </si>
+  <si>
+    <t>CAMOUFLAGE</t>
+  </si>
+  <si>
+    <t>LIGHT GREY</t>
+  </si>
+  <si>
+    <t>RED PLAID</t>
+  </si>
+  <si>
+    <t>FL-CONSTANT-8</t>
+  </si>
+  <si>
+    <t>FL-DORA-18</t>
+  </si>
+  <si>
+    <t>FL-EURY-2</t>
+  </si>
+  <si>
+    <t>FL-EURY-2K</t>
+  </si>
+  <si>
+    <t>FL-EURY-2KA</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>FL-EXCITED-90</t>
+  </si>
+  <si>
+    <t>FL-FANNIE-100</t>
+  </si>
+  <si>
+    <t>BLUSH</t>
+  </si>
+  <si>
+    <t>MULTI</t>
+  </si>
+  <si>
+    <t>FL-FISHER-62</t>
+  </si>
+  <si>
+    <t>FL-FISHER-62K</t>
+  </si>
+  <si>
+    <t>FL-FLEXIBLE-32K</t>
+  </si>
+  <si>
+    <t>FL-FLEXIBLE-77</t>
+  </si>
+  <si>
+    <t>FL-FLOW-19K</t>
+  </si>
+  <si>
+    <t>BLACK CLEAR</t>
+  </si>
+  <si>
+    <t>BURGUNDY</t>
+  </si>
+  <si>
+    <t>FUCHSIA</t>
+  </si>
+  <si>
+    <t>LIGHT BLUE</t>
   </si>
   <si>
     <t>LAVENDER</t>
   </si>
   <si>
-    <t>LIGHT BLUE</t>
-  </si>
-  <si>
-    <t>NUDE</t>
-  </si>
-  <si>
-    <t>TG-ARIANA-1</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>IVORY</t>
-  </si>
-  <si>
-    <t>TG-ARIANA-28</t>
-  </si>
-  <si>
-    <t>TG-ASIA-75</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>ROSE GOLD</t>
-  </si>
-  <si>
-    <t>B18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILVER </t>
-  </si>
-  <si>
-    <t>TG-ASPEN-2</t>
-  </si>
-  <si>
-    <t>BLACK PU</t>
-  </si>
-  <si>
-    <t>TAUPE</t>
-  </si>
-  <si>
-    <t>TG-BAVEL-1</t>
-  </si>
-  <si>
-    <t>TAN</t>
-  </si>
-  <si>
-    <t>TG-BIANCA-90</t>
-  </si>
-  <si>
-    <t>BLACK PATENT</t>
-  </si>
-  <si>
-    <t>BROWN</t>
-  </si>
-  <si>
-    <t>CAMEL PATENT</t>
-  </si>
-  <si>
-    <t>WINE PATENT</t>
-  </si>
-  <si>
-    <t>TG-BLOSSOM-3</t>
-  </si>
-  <si>
-    <t>BLACK NUBUCK</t>
-  </si>
-  <si>
-    <t>TG-BRAZIL-23</t>
-  </si>
-  <si>
-    <t>TG-BRAZIL-72</t>
-  </si>
-  <si>
-    <t>TG-BRUCE-16</t>
-  </si>
-  <si>
-    <t>G18</t>
-  </si>
-  <si>
-    <t>TG-CARRIS-62</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>TG-CHER-1</t>
-  </si>
-  <si>
-    <t>TG-CLAIRE-1</t>
-  </si>
-  <si>
-    <t>CHAMPAGNE</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>TG-DAKOTA-6</t>
-  </si>
-  <si>
-    <t>TG-DAKOTA-99</t>
-  </si>
-  <si>
-    <t>CAMEL</t>
-  </si>
-  <si>
-    <t>TG-DARCIE-1</t>
-  </si>
-  <si>
-    <t>TG-DIAMOND-1</t>
-  </si>
-  <si>
-    <t>TG-DOROTHY-77</t>
-  </si>
-  <si>
-    <t>BEIGE</t>
-  </si>
-  <si>
-    <t>TG-DOTHAN-1A</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>MAUVE</t>
-  </si>
-  <si>
-    <t>TG-DUTCH-6</t>
-  </si>
-  <si>
-    <t>WHITE</t>
-  </si>
-  <si>
-    <t>TG-FINN-6</t>
-  </si>
-  <si>
-    <t>TG-FOX-66</t>
-  </si>
-  <si>
-    <t>TG-GATETH-33</t>
-  </si>
-  <si>
-    <t>L12</t>
-  </si>
-  <si>
-    <t>CLEAR</t>
-  </si>
-  <si>
-    <t>TG-GATETH-56K</t>
-  </si>
-  <si>
-    <t>PEWTER</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>TG-HANS-66</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>BLUSH</t>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>RED TIE DYE</t>
+  </si>
+  <si>
+    <t>ROSE TIE DYE</t>
+  </si>
+  <si>
+    <t>SILVER GREY</t>
+  </si>
+  <si>
+    <t>FL-FREEDOM-17</t>
+  </si>
+  <si>
+    <t>FL-GLARE-02</t>
+  </si>
+  <si>
+    <t>BLACK MULTI</t>
   </si>
   <si>
     <t>GOLD</t>
   </si>
   <si>
-    <t>TG-HANS-7</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>OLIVE GREEN</t>
-  </si>
-  <si>
-    <t>WINE</t>
-  </si>
-  <si>
-    <t>TG-HERA-22</t>
-  </si>
-  <si>
-    <t>TG-HILTON-36A</t>
-  </si>
-  <si>
-    <t>MULTI</t>
-  </si>
-  <si>
-    <t>TG-HILTON-99K</t>
-  </si>
-  <si>
-    <t>TG-JADE-3</t>
-  </si>
-  <si>
-    <t>BLACK SUEDE</t>
-  </si>
-  <si>
-    <t>BROWN PU</t>
-  </si>
-  <si>
-    <t>TAN SUEDE</t>
-  </si>
-  <si>
-    <t>TAUPE SUEDE</t>
-  </si>
-  <si>
-    <t>WHITE PU</t>
-  </si>
-  <si>
-    <t>TG-JADE-88</t>
-  </si>
-  <si>
-    <t>TG-JANE-1</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>TG-JAZZ-23</t>
-  </si>
-  <si>
-    <t>TG-JERSEY-1</t>
-  </si>
-  <si>
-    <t>TG-KANGA-16</t>
-  </si>
-  <si>
-    <t>FUCHSIA</t>
-  </si>
-  <si>
-    <t>TG-KANGA-90</t>
-  </si>
-  <si>
-    <t>TG-KEEN-1</t>
-  </si>
-  <si>
-    <t>CHESTNUT</t>
-  </si>
-  <si>
-    <t>TG-LADD-1</t>
-  </si>
-  <si>
-    <t>TG-LISBON-1</t>
-  </si>
-  <si>
-    <t>TG-LOLLIE-1</t>
-  </si>
-  <si>
-    <t>TG-LOLLIE-28</t>
-  </si>
-  <si>
-    <t>TG-LOVELY-1</t>
-  </si>
-  <si>
-    <t>TG-LOVELY-86</t>
-  </si>
-  <si>
-    <t>TG-MADDIE-1</t>
-  </si>
-  <si>
-    <t>STONE</t>
-  </si>
-  <si>
-    <t>TG-MICHI-29</t>
-  </si>
-  <si>
-    <t>TG-MONROE-1</t>
-  </si>
-  <si>
-    <t>NUDE PATENT</t>
-  </si>
-  <si>
-    <t>NUDE PU</t>
+    <t>FL-GLARE-12K</t>
+  </si>
+  <si>
+    <t>FL-HAPPY-02</t>
+  </si>
+  <si>
+    <t>FL-HUNT-3</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>COFFEE</t>
+  </si>
+  <si>
+    <t>FL-JIMMI-05</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>FL-JIMMI-06</t>
+  </si>
+  <si>
+    <t>FL-JIMMI-31</t>
+  </si>
+  <si>
+    <t>FL-KALLY-2</t>
+  </si>
+  <si>
+    <t>FL-KINSELLA-28K</t>
+  </si>
+  <si>
+    <t>FL-KINSELLA-39K</t>
+  </si>
+  <si>
+    <t>FL-KINSELLA-40</t>
+  </si>
+  <si>
+    <t>FL-KINSELLA-49K</t>
+  </si>
+  <si>
+    <t>FL-LABOR-8</t>
+  </si>
+  <si>
+    <t>LIGHT GREEN</t>
+  </si>
+  <si>
+    <t>FL-LAJOLLA-86</t>
+  </si>
+  <si>
+    <t>FL-LARISSA-23</t>
+  </si>
+  <si>
+    <t>FL-LIMITED-98</t>
+  </si>
+  <si>
+    <t>MIRAGE</t>
+  </si>
+  <si>
+    <t>FL-MANGO-01K</t>
+  </si>
+  <si>
+    <t>FL-MANGO-01KA</t>
+  </si>
+  <si>
+    <t>FL-NATALY-06</t>
+  </si>
+  <si>
+    <t>ARGENT</t>
+  </si>
+  <si>
+    <t>CHARCOAL</t>
+  </si>
+  <si>
+    <t>MUSTARD</t>
+  </si>
+  <si>
+    <t>REDNESS</t>
+  </si>
+  <si>
+    <t>ROYAL BLUE</t>
+  </si>
+  <si>
+    <t>FL-NOTICE-08</t>
+  </si>
+  <si>
+    <t>FL-PACIFIC-33</t>
+  </si>
+  <si>
+    <t>FL-PRESENT-52</t>
+  </si>
+  <si>
+    <t>FL-PRESENT-72</t>
+  </si>
+  <si>
+    <t>FL-REFORM-2</t>
+  </si>
+  <si>
+    <t>RAINBOW</t>
+  </si>
+  <si>
+    <t>FL-REVIEW-33</t>
+  </si>
+  <si>
+    <t>FL-RISE-9</t>
+  </si>
+  <si>
+    <t>FL-SANZI-2</t>
+  </si>
+  <si>
+    <t>FL-SELENA-24K</t>
+  </si>
+  <si>
+    <t>FL-SONGFUL-6</t>
   </si>
   <si>
     <t>RED PATENT</t>
   </si>
   <si>
-    <t>TG-NILE-1</t>
-  </si>
-  <si>
-    <t>ORANGE</t>
-  </si>
-  <si>
-    <t>TG-PAULEY-46</t>
-  </si>
-  <si>
-    <t>TG-PIXEL-5</t>
-  </si>
-  <si>
-    <t>MINT</t>
-  </si>
-  <si>
-    <t>TG-PIXEL-91</t>
-  </si>
-  <si>
-    <t>PINK</t>
-  </si>
-  <si>
-    <t>TG-RIDGE-28</t>
-  </si>
-  <si>
-    <t>TG-RONY-21</t>
-  </si>
-  <si>
-    <t>TG-RONY-63</t>
-  </si>
-  <si>
-    <t>TG-SASSY-1</t>
-  </si>
-  <si>
-    <t>TG-SKITTLE-77</t>
-  </si>
-  <si>
-    <t>TG-SKITTLE-8</t>
-  </si>
-  <si>
-    <t>TG-SOSANNA-1</t>
-  </si>
-  <si>
-    <t>TG-THOMAS-52</t>
-  </si>
-  <si>
-    <t>TG-TIMBER-66</t>
-  </si>
-  <si>
-    <t>TG-TRICK-8</t>
-  </si>
-  <si>
-    <t>TG-TRISHA-1</t>
-  </si>
-  <si>
-    <t>MZ</t>
-  </si>
-  <si>
-    <t>TG-VESPER-77</t>
-  </si>
-  <si>
-    <t>TG-WHISKY-1</t>
-  </si>
-  <si>
-    <t>TG-WHISKY-3</t>
-  </si>
-  <si>
-    <t>TG-WICK-1</t>
-  </si>
-  <si>
-    <t>TG-ZANDRA-26</t>
-  </si>
-  <si>
-    <t>TG-ZANDRA-59</t>
+    <t>FL-SPACE-11</t>
+  </si>
+  <si>
+    <t>FL-SPACE-20</t>
+  </si>
+  <si>
+    <t>FL-STEVEN-11</t>
+  </si>
+  <si>
+    <t>FL-STREAM-11</t>
+  </si>
+  <si>
+    <t>RED BLACK</t>
+  </si>
+  <si>
+    <t>YELLOW BLACK</t>
+  </si>
+  <si>
+    <t>FL-STREAM-13</t>
+  </si>
+  <si>
+    <t>FL-STREAM-22</t>
+  </si>
+  <si>
+    <t>FL-TRACE-14K</t>
+  </si>
+  <si>
+    <t>FL-WEAVE-20</t>
+  </si>
+  <si>
+    <t>FL-WEAVE-29</t>
+  </si>
+  <si>
+    <t>FL-WEAVE-86</t>
+  </si>
+  <si>
+    <t>FL-YUMMY-12K</t>
   </si>
 </sst>
 </file>
@@ -411,76 +447,72 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -488,38 +520,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -527,21 +543,15 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -549,30 +559,23 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -580,14 +583,44 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -601,7 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +646,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,25 +670,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,13 +700,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,31 +760,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,73 +808,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,6 +873,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -851,15 +902,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,15 +932,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -910,213 +943,224 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1126,7 +1170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1383,25 +1427,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D419"/>
+  <dimension ref="A1:D493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.14285714285714" style="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1458,10 +1502,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>999</v>
@@ -1469,10 +1513,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -1483,27 +1527,27 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>999</v>
@@ -1511,10 +1555,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
@@ -1525,10 +1569,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>7</v>
@@ -1539,27 +1583,27 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
         <v>999</v>
@@ -1567,13 +1611,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D13" s="1">
         <v>999</v>
@@ -1581,13 +1625,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1">
         <v>999</v>
@@ -1595,13 +1639,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1">
         <v>999</v>
@@ -1609,13 +1653,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D16" s="1">
         <v>999</v>
@@ -1623,69 +1667,69 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1">
         <v>999</v>
@@ -1693,13 +1737,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1">
         <v>999</v>
@@ -1707,27 +1751,27 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1735,27 +1779,27 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1">
         <v>999</v>
@@ -1763,41 +1807,41 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1">
         <v>999</v>
@@ -1805,13 +1849,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1">
         <v>999</v>
@@ -1819,55 +1863,55 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D32" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1">
         <v>999</v>
@@ -1875,13 +1919,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1">
         <v>999</v>
@@ -1889,13 +1933,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1">
         <v>999</v>
@@ -1903,13 +1947,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1">
         <v>999</v>
@@ -1917,13 +1961,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D38" s="1">
         <v>999</v>
@@ -1931,13 +1975,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D39" s="1">
         <v>999</v>
@@ -1945,13 +1989,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D40" s="1">
         <v>999</v>
@@ -1959,13 +2003,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1">
         <v>999</v>
@@ -1973,13 +2017,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D42" s="1">
         <v>999</v>
@@ -1987,13 +2031,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1">
         <v>999</v>
@@ -2001,13 +2045,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D44" s="1">
         <v>999</v>
@@ -2015,13 +2059,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1">
         <v>999</v>
@@ -2029,13 +2073,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1">
         <v>999</v>
@@ -2043,13 +2087,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1">
         <v>999</v>
@@ -2057,13 +2101,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1">
         <v>999</v>
@@ -2071,13 +2115,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D49" s="1">
         <v>999</v>
@@ -2085,13 +2129,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D50" s="1">
         <v>999</v>
@@ -2099,27 +2143,27 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D52" s="1">
         <v>999</v>
@@ -2127,13 +2171,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D53" s="1">
         <v>999</v>
@@ -2141,13 +2185,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1">
         <v>999</v>
@@ -2155,13 +2199,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D55" s="1">
         <v>999</v>
@@ -2169,27 +2213,27 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1">
         <v>999</v>
@@ -2197,27 +2241,27 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D59" s="1">
         <v>999</v>
@@ -2225,13 +2269,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D60" s="1">
         <v>999</v>
@@ -2239,44 +2283,44 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2284,10 +2328,10 @@
         <v>37</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D64" s="1">
         <v>999</v>
@@ -2298,10 +2342,10 @@
         <v>37</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D65" s="1">
         <v>999</v>
@@ -2315,7 +2359,7 @@
         <v>38</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D66" s="1">
         <v>999</v>
@@ -2326,52 +2370,52 @@
         <v>37</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D69" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D70" s="1">
         <v>999</v>
@@ -2382,10 +2426,10 @@
         <v>39</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D71" s="1">
         <v>999</v>
@@ -2396,10 +2440,10 @@
         <v>39</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D72" s="1">
         <v>999</v>
@@ -2410,10 +2454,10 @@
         <v>39</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D73" s="1">
         <v>999</v>
@@ -2424,10 +2468,10 @@
         <v>39</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D74" s="1">
         <v>999</v>
@@ -2438,10 +2482,10 @@
         <v>39</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D75" s="1">
         <v>999</v>
@@ -2449,13 +2493,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D76" s="1">
         <v>999</v>
@@ -2463,13 +2507,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D77" s="1">
         <v>999</v>
@@ -2477,13 +2521,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D78" s="1">
         <v>999</v>
@@ -2491,13 +2535,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D79" s="1">
         <v>999</v>
@@ -2505,27 +2549,27 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D81" s="1">
         <v>999</v>
@@ -2533,13 +2577,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D82" s="1">
         <v>999</v>
@@ -2547,13 +2591,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D83" s="1">
         <v>999</v>
@@ -2561,13 +2605,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D84" s="1">
         <v>999</v>
@@ -2575,13 +2619,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D85" s="1">
         <v>999</v>
@@ -2589,13 +2633,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D86" s="1">
         <v>999</v>
@@ -2603,13 +2647,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D87" s="1">
         <v>999</v>
@@ -2617,13 +2661,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D88" s="1">
         <v>999</v>
@@ -2631,13 +2675,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D89" s="1">
         <v>999</v>
@@ -2645,13 +2689,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D90" s="1">
         <v>999</v>
@@ -2659,41 +2703,41 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D91" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D92" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D93" s="1">
         <v>999</v>
@@ -2701,13 +2745,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D94" s="1">
         <v>999</v>
@@ -2715,13 +2759,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D95" s="1">
         <v>999</v>
@@ -2729,41 +2773,41 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D97" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D98" s="1">
         <v>999</v>
@@ -2771,27 +2815,27 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D100" s="1">
         <v>999</v>
@@ -2799,41 +2843,41 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D102" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D103" s="1">
         <v>999</v>
@@ -2841,27 +2885,27 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D104" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D105" s="1">
         <v>999</v>
@@ -2869,13 +2913,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D106" s="1">
         <v>999</v>
@@ -2883,13 +2927,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D107" s="1">
         <v>999</v>
@@ -2897,13 +2941,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D108" s="1">
         <v>999</v>
@@ -2911,13 +2955,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D109" s="1">
         <v>999</v>
@@ -2925,13 +2969,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D110" s="1">
         <v>999</v>
@@ -2939,13 +2983,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D111" s="1">
         <v>999</v>
@@ -2953,41 +2997,41 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D112" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D113" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D114" s="1">
         <v>999</v>
@@ -2995,13 +3039,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D115" s="1">
         <v>999</v>
@@ -3009,13 +3053,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D116" s="1">
         <v>999</v>
@@ -3023,13 +3067,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D117" s="1">
         <v>999</v>
@@ -3037,13 +3081,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D118" s="1">
         <v>999</v>
@@ -3051,27 +3095,27 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="C119" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D119" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D120" s="1">
         <v>999</v>
@@ -3079,41 +3123,41 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="C121" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D121" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="C122" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D122" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D123" s="1">
         <v>999</v>
@@ -3121,13 +3165,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D124" s="1">
         <v>999</v>
@@ -3135,27 +3179,27 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D125" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D126" s="1">
         <v>999</v>
@@ -3163,13 +3207,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D127" s="1">
         <v>999</v>
@@ -3177,55 +3221,55 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D128" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D129" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D130" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D131" s="1">
         <v>999</v>
@@ -3233,13 +3277,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D132" s="1">
         <v>999</v>
@@ -3247,13 +3291,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D133" s="1">
         <v>999</v>
@@ -3261,13 +3305,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D134" s="1">
         <v>999</v>
@@ -3275,13 +3319,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D135" s="1">
         <v>999</v>
@@ -3289,13 +3333,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D136" s="1">
         <v>999</v>
@@ -3303,13 +3347,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D137" s="1">
         <v>999</v>
@@ -3317,13 +3361,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D138" s="1">
         <v>999</v>
@@ -3331,13 +3375,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D139" s="1">
         <v>999</v>
@@ -3348,24 +3392,24 @@
         <v>60</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="D140" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D141" s="1">
         <v>999</v>
@@ -3373,13 +3417,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D142" s="1">
         <v>999</v>
@@ -3387,27 +3431,27 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D143" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D144" s="1">
         <v>999</v>
@@ -3415,13 +3459,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D145" s="1">
         <v>999</v>
@@ -3429,13 +3473,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D146" s="1">
         <v>999</v>
@@ -3443,13 +3487,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D147" s="1">
         <v>999</v>
@@ -3457,13 +3501,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D148" s="1">
         <v>999</v>
@@ -3471,13 +3515,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D149" s="1">
         <v>999</v>
@@ -3485,10 +3529,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>64</v>
@@ -3499,10 +3543,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>64</v>
@@ -3513,13 +3557,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D152" s="1">
         <v>999</v>
@@ -3527,13 +3571,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D153" s="1">
         <v>999</v>
@@ -3541,13 +3585,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D154" s="1">
         <v>999</v>
@@ -3555,13 +3599,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D155" s="1">
         <v>999</v>
@@ -3569,13 +3613,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D156" s="1">
         <v>999</v>
@@ -3583,13 +3627,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D157" s="1">
         <v>999</v>
@@ -3597,13 +3641,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D158" s="1">
         <v>999</v>
@@ -3611,13 +3655,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D159" s="1">
         <v>999</v>
@@ -3625,13 +3669,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B160" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="C160" s="5" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D160" s="1">
         <v>999</v>
@@ -3639,13 +3683,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B161" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="C161" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D161" s="1">
         <v>999</v>
@@ -3653,13 +3697,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D162" s="1">
         <v>999</v>
@@ -3667,13 +3711,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D163" s="1">
         <v>999</v>
@@ -3681,13 +3725,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D164" s="1">
         <v>999</v>
@@ -3695,13 +3739,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D165" s="1">
         <v>999</v>
@@ -3709,13 +3753,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D166" s="1">
         <v>999</v>
@@ -3723,13 +3767,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D167" s="1">
         <v>999</v>
@@ -3737,13 +3781,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D168" s="1">
         <v>999</v>
@@ -3751,41 +3795,41 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D169" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D170" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="D171" s="1">
         <v>999</v>
@@ -3793,13 +3837,13 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D172" s="1">
         <v>999</v>
@@ -3807,13 +3851,13 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D173" s="1">
         <v>999</v>
@@ -3821,13 +3865,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D174" s="1">
         <v>999</v>
@@ -3835,13 +3879,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D175" s="1">
         <v>999</v>
@@ -3849,27 +3893,27 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D176" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D177" s="1">
         <v>999</v>
@@ -3877,13 +3921,13 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D178" s="1">
         <v>999</v>
@@ -3891,13 +3935,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D179" s="1">
         <v>999</v>
@@ -3905,41 +3949,41 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D180" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D181" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D182" s="1">
         <v>999</v>
@@ -3947,13 +3991,13 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D183" s="1">
         <v>0</v>
@@ -3961,13 +4005,13 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D184" s="1">
         <v>999</v>
@@ -3975,13 +4019,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D185" s="1">
         <v>999</v>
@@ -3989,13 +4033,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D186" s="1">
         <v>999</v>
@@ -4003,13 +4047,13 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D187" s="1">
         <v>999</v>
@@ -4017,13 +4061,13 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D188" s="1">
         <v>999</v>
@@ -4031,27 +4075,27 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D189" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D190" s="1">
         <v>999</v>
@@ -4059,13 +4103,13 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D191" s="1">
         <v>999</v>
@@ -4073,13 +4117,13 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D192" s="1">
         <v>999</v>
@@ -4087,13 +4131,13 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D193" s="1">
         <v>999</v>
@@ -4101,13 +4145,13 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D194" s="1">
         <v>999</v>
@@ -4115,13 +4159,13 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D195" s="1">
         <v>999</v>
@@ -4129,41 +4173,41 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D196" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D197" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D198" s="1">
         <v>999</v>
@@ -4171,13 +4215,13 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D199" s="1">
         <v>999</v>
@@ -4185,13 +4229,13 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D200" s="1">
         <v>999</v>
@@ -4199,27 +4243,27 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D201" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D202" s="1">
         <v>999</v>
@@ -4227,13 +4271,13 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D203" s="1">
         <v>999</v>
@@ -4241,13 +4285,13 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D204" s="1">
         <v>999</v>
@@ -4255,13 +4299,13 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B205" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="C205" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D205" s="1">
         <v>999</v>
@@ -4269,13 +4313,13 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B206" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B206" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="C206" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D206" s="1">
         <v>999</v>
@@ -4283,13 +4327,13 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D207" s="1">
         <v>999</v>
@@ -4297,13 +4341,13 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D208" s="1">
         <v>999</v>
@@ -4311,13 +4355,13 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D209" s="1">
         <v>999</v>
@@ -4325,13 +4369,13 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D210" s="1">
         <v>999</v>
@@ -4339,13 +4383,13 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D211" s="1">
         <v>999</v>
@@ -4353,13 +4397,13 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D212" s="1">
         <v>999</v>
@@ -4367,13 +4411,13 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D213" s="1">
         <v>999</v>
@@ -4381,13 +4425,13 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D214" s="1">
         <v>999</v>
@@ -4398,10 +4442,10 @@
         <v>88</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D215" s="1">
         <v>999</v>
@@ -4412,10 +4456,10 @@
         <v>88</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D216" s="1">
         <v>999</v>
@@ -4426,10 +4470,10 @@
         <v>88</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D217" s="1">
         <v>999</v>
@@ -4437,13 +4481,13 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D218" s="1">
         <v>999</v>
@@ -4451,13 +4495,13 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D219" s="1">
         <v>999</v>
@@ -4465,27 +4509,27 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D220" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D221" s="1">
         <v>999</v>
@@ -4493,13 +4537,13 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D222" s="1">
         <v>999</v>
@@ -4507,13 +4551,13 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D223" s="1">
         <v>999</v>
@@ -4521,13 +4565,13 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D224" s="1">
         <v>0</v>
@@ -4535,13 +4579,13 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D225" s="1">
         <v>999</v>
@@ -4549,13 +4593,13 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C226" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D226" s="1">
         <v>999</v>
@@ -4563,13 +4607,13 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D227" s="1">
         <v>999</v>
@@ -4577,13 +4621,13 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C228" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D228" s="1">
         <v>999</v>
@@ -4591,13 +4635,13 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D229" s="1">
         <v>999</v>
@@ -4605,13 +4649,13 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D230" s="1">
         <v>999</v>
@@ -4619,13 +4663,13 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D231" s="1">
         <v>999</v>
@@ -4633,27 +4677,27 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D232" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D233" s="1">
         <v>999</v>
@@ -4661,13 +4705,13 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D234" s="1">
         <v>999</v>
@@ -4675,13 +4719,13 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D235" s="1">
         <v>999</v>
@@ -4689,13 +4733,13 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D236" s="1">
         <v>999</v>
@@ -4703,16 +4747,16 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D237" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4720,13 +4764,13 @@
         <v>93</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D238" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4734,10 +4778,10 @@
         <v>93</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D239" s="1">
         <v>999</v>
@@ -4745,13 +4789,13 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D240" s="1">
         <v>999</v>
@@ -4759,13 +4803,13 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D241" s="1">
         <v>999</v>
@@ -4773,13 +4817,13 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B242" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B242" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="C242" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D242" s="1">
         <v>999</v>
@@ -4787,13 +4831,13 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B243" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B243" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="C243" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D243" s="1">
         <v>999</v>
@@ -4801,13 +4845,13 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D244" s="1">
         <v>999</v>
@@ -4818,10 +4862,10 @@
         <v>95</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D245" s="1">
         <v>999</v>
@@ -4832,10 +4876,10 @@
         <v>95</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D246" s="1">
         <v>999</v>
@@ -4846,10 +4890,10 @@
         <v>95</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D247" s="1">
         <v>999</v>
@@ -4860,10 +4904,10 @@
         <v>95</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D248" s="1">
         <v>999</v>
@@ -4874,10 +4918,10 @@
         <v>95</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D249" s="1">
         <v>999</v>
@@ -4888,10 +4932,10 @@
         <v>95</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D250" s="1">
         <v>999</v>
@@ -4902,10 +4946,10 @@
         <v>95</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D251" s="1">
         <v>999</v>
@@ -4913,13 +4957,13 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D252" s="1">
         <v>999</v>
@@ -4927,27 +4971,27 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D253" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D254" s="1">
         <v>999</v>
@@ -4958,10 +5002,10 @@
         <v>96</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D255" s="1">
         <v>999</v>
@@ -4972,10 +5016,10 @@
         <v>96</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D256" s="1">
         <v>999</v>
@@ -4986,10 +5030,10 @@
         <v>96</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D257" s="1">
         <v>999</v>
@@ -5000,13 +5044,13 @@
         <v>96</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D258" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5014,10 +5058,10 @@
         <v>96</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D259" s="1">
         <v>999</v>
@@ -5025,27 +5069,27 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D260" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D261" s="1">
         <v>999</v>
@@ -5053,13 +5097,13 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D262" s="1">
         <v>999</v>
@@ -5067,13 +5111,13 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D263" s="1">
         <v>0</v>
@@ -5081,27 +5125,27 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D264" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D265" s="1">
         <v>999</v>
@@ -5109,13 +5153,13 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D266" s="1">
         <v>999</v>
@@ -5123,27 +5167,27 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D267" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D268" s="1">
         <v>999</v>
@@ -5151,13 +5195,13 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D269" s="1">
         <v>999</v>
@@ -5165,41 +5209,41 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D270" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D271" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D272" s="1">
         <v>999</v>
@@ -5207,13 +5251,13 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D273" s="1">
         <v>999</v>
@@ -5221,13 +5265,13 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D274" s="1">
         <v>999</v>
@@ -5235,27 +5279,27 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D275" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D276" s="1">
         <v>999</v>
@@ -5266,10 +5310,10 @@
         <v>100</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D277" s="1">
         <v>999</v>
@@ -5280,24 +5324,24 @@
         <v>100</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D278" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D279" s="1">
         <v>999</v>
@@ -5305,27 +5349,27 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D280" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D281" s="1">
         <v>999</v>
@@ -5333,41 +5377,41 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D282" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D283" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D284" s="1">
         <v>999</v>
@@ -5375,13 +5419,13 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D285" s="1">
         <v>999</v>
@@ -5389,13 +5433,13 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D286" s="1">
         <v>999</v>
@@ -5403,13 +5447,13 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D287" s="1">
         <v>999</v>
@@ -5417,27 +5461,27 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D288" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D289" s="1">
         <v>999</v>
@@ -5445,27 +5489,27 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D290" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D291" s="1">
         <v>999</v>
@@ -5473,13 +5517,13 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D292" s="1">
         <v>999</v>
@@ -5487,13 +5531,13 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D293" s="1">
         <v>999</v>
@@ -5504,10 +5548,10 @@
         <v>104</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D294" s="1">
         <v>999</v>
@@ -5518,10 +5562,10 @@
         <v>104</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D295" s="1">
         <v>999</v>
@@ -5532,10 +5576,10 @@
         <v>104</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D296" s="1">
         <v>999</v>
@@ -5546,13 +5590,13 @@
         <v>104</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D297" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5560,10 +5604,10 @@
         <v>104</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D298" s="1">
         <v>999</v>
@@ -5574,10 +5618,10 @@
         <v>104</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D299" s="1">
         <v>999</v>
@@ -5588,10 +5632,10 @@
         <v>104</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D300" s="1">
         <v>999</v>
@@ -5602,10 +5646,10 @@
         <v>104</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D301" s="1">
         <v>999</v>
@@ -5613,13 +5657,13 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D302" s="1">
         <v>999</v>
@@ -5627,27 +5671,27 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D303" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D304" s="1">
         <v>999</v>
@@ -5655,13 +5699,13 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D305" s="1">
         <v>0</v>
@@ -5669,13 +5713,13 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D306" s="1">
         <v>999</v>
@@ -5683,13 +5727,13 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D307" s="1">
         <v>999</v>
@@ -5697,10 +5741,10 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>6</v>
@@ -5711,38 +5755,38 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D309" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D310" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>6</v>
@@ -5753,41 +5797,41 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D312" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D313" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D314" s="1">
         <v>999</v>
@@ -5795,13 +5839,13 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D315" s="1">
         <v>999</v>
@@ -5809,27 +5853,27 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D316" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D317" s="1">
         <v>999</v>
@@ -5837,27 +5881,27 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D318" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D319" s="1">
         <v>999</v>
@@ -5865,27 +5909,27 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D320" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D321" s="1">
         <v>999</v>
@@ -5893,13 +5937,13 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D322" s="1">
         <v>999</v>
@@ -5907,13 +5951,13 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D323" s="1">
         <v>999</v>
@@ -5921,27 +5965,27 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D324" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D325" s="1">
         <v>999</v>
@@ -5949,41 +5993,41 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D326" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D327" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D328" s="1">
         <v>999</v>
@@ -5991,27 +6035,27 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D329" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D330" s="1">
         <v>999</v>
@@ -6019,13 +6063,13 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D331" s="1">
         <v>999</v>
@@ -6033,41 +6077,41 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D332" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D333" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D334" s="1">
         <v>999</v>
@@ -6075,27 +6119,27 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D335" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D336" s="1">
         <v>999</v>
@@ -6103,13 +6147,13 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D337" s="1">
         <v>999</v>
@@ -6117,13 +6161,13 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B338" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B338" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="C338" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D338" s="1">
         <v>999</v>
@@ -6131,13 +6175,13 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D339" s="1">
         <v>999</v>
@@ -6145,27 +6189,27 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D340" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D341" s="1">
         <v>999</v>
@@ -6173,13 +6217,13 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D342" s="1">
         <v>999</v>
@@ -6187,13 +6231,13 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D343" s="1">
         <v>999</v>
@@ -6201,13 +6245,13 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D344" s="1">
         <v>999</v>
@@ -6215,13 +6259,13 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D345" s="1">
         <v>999</v>
@@ -6229,13 +6273,13 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D346" s="1">
         <v>999</v>
@@ -6243,13 +6287,13 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D347" s="1">
         <v>999</v>
@@ -6257,27 +6301,27 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D348" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D349" s="1">
         <v>999</v>
@@ -6285,13 +6329,13 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D350" s="1">
         <v>999</v>
@@ -6299,27 +6343,27 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D351" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D352" s="1">
         <v>999</v>
@@ -6327,27 +6371,27 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D353" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D354" s="1">
         <v>999</v>
@@ -6355,13 +6399,13 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D355" s="1">
         <v>999</v>
@@ -6369,13 +6413,13 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D356" s="1">
         <v>999</v>
@@ -6383,55 +6427,55 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D357" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D358" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D359" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D360" s="1">
         <v>999</v>
@@ -6439,27 +6483,27 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D361" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D362" s="1">
         <v>999</v>
@@ -6467,13 +6511,13 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D363" s="1">
         <v>999</v>
@@ -6481,13 +6525,13 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D364" s="1">
         <v>999</v>
@@ -6495,13 +6539,13 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D365" s="1">
         <v>999</v>
@@ -6509,13 +6553,13 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D366" s="1">
         <v>999</v>
@@ -6523,13 +6567,13 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D367" s="1">
         <v>999</v>
@@ -6537,13 +6581,13 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D368" s="1">
         <v>999</v>
@@ -6551,13 +6595,13 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D369" s="1">
         <v>999</v>
@@ -6565,13 +6609,13 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D370" s="1">
         <v>999</v>
@@ -6579,13 +6623,13 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D371" s="1">
         <v>999</v>
@@ -6593,27 +6637,27 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D372" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D373" s="1">
         <v>999</v>
@@ -6621,13 +6665,13 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D374" s="1">
         <v>999</v>
@@ -6635,13 +6679,13 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D375" s="1">
         <v>999</v>
@@ -6649,13 +6693,13 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D376" s="1">
         <v>999</v>
@@ -6663,13 +6707,13 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D377" s="1">
         <v>999</v>
@@ -6677,13 +6721,13 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D378" s="1">
         <v>999</v>
@@ -6691,13 +6735,13 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D379" s="1">
         <v>999</v>
@@ -6705,13 +6749,13 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D380" s="1">
         <v>999</v>
@@ -6719,13 +6763,13 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D381" s="1">
         <v>999</v>
@@ -6733,24 +6777,24 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D382" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>6</v>
@@ -6761,16 +6805,16 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="D384" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -6778,10 +6822,10 @@
         <v>123</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D385" s="1">
         <v>999</v>
@@ -6792,10 +6836,10 @@
         <v>123</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D386" s="1">
         <v>999</v>
@@ -6803,16 +6847,16 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D387" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -6820,10 +6864,10 @@
         <v>124</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D388" s="1">
         <v>999</v>
@@ -6834,10 +6878,10 @@
         <v>124</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D389" s="1">
         <v>999</v>
@@ -6848,10 +6892,10 @@
         <v>124</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D390" s="1">
         <v>999</v>
@@ -6862,10 +6906,10 @@
         <v>124</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D391" s="1">
         <v>999</v>
@@ -6876,10 +6920,10 @@
         <v>124</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D392" s="1">
         <v>999</v>
@@ -6890,10 +6934,10 @@
         <v>124</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D393" s="1">
         <v>999</v>
@@ -6904,10 +6948,10 @@
         <v>124</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D394" s="1">
         <v>999</v>
@@ -6915,16 +6959,16 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D395" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -6932,10 +6976,10 @@
         <v>125</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D396" s="1">
         <v>999</v>
@@ -6946,10 +6990,10 @@
         <v>125</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D397" s="1">
         <v>0</v>
@@ -6960,10 +7004,10 @@
         <v>125</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D398" s="1">
         <v>999</v>
@@ -6971,13 +7015,13 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D399" s="1">
         <v>0</v>
@@ -6985,27 +7029,27 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D400" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D401" s="1">
         <v>999</v>
@@ -7013,13 +7057,13 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D402" s="1">
         <v>999</v>
@@ -7027,13 +7071,13 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D403" s="1">
         <v>999</v>
@@ -7044,13 +7088,13 @@
         <v>126</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D404" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7058,10 +7102,10 @@
         <v>126</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D405" s="1">
         <v>999</v>
@@ -7072,10 +7116,10 @@
         <v>126</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D406" s="1">
         <v>999</v>
@@ -7086,10 +7130,10 @@
         <v>126</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D407" s="1">
         <v>999</v>
@@ -7100,10 +7144,10 @@
         <v>126</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D408" s="1">
         <v>999</v>
@@ -7114,10 +7158,10 @@
         <v>126</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D409" s="1">
         <v>999</v>
@@ -7128,10 +7172,10 @@
         <v>126</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D410" s="1">
         <v>999</v>
@@ -7142,24 +7186,24 @@
         <v>126</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D411" s="1">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D412" s="1">
         <v>999</v>
@@ -7167,13 +7211,13 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D413" s="1">
         <v>999</v>
@@ -7181,13 +7225,13 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D414" s="1">
         <v>999</v>
@@ -7195,13 +7239,13 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D415" s="1">
         <v>999</v>
@@ -7209,13 +7253,13 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D416" s="1">
         <v>999</v>
@@ -7226,10 +7270,10 @@
         <v>128</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D417" s="1">
         <v>999</v>
@@ -7240,10 +7284,10 @@
         <v>128</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D418" s="1">
         <v>999</v>
@@ -7254,19 +7298,1052 @@
         <v>128</v>
       </c>
       <c r="B419" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D419" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D420" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D421" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D422" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D423" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B424" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C419" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D419" s="1">
-        <v>999</v>
+      <c r="C424" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D424" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D425" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D426" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D427" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D428" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D429" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D430" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D431" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D432" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D433" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D434" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D435" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D436" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D437" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D438" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D439" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D440" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D441" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D442" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B443" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D443" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D444" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B445" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D445" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D446" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D447" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D448" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D449" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D450" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D451" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D452" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C453" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D453" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D454" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B455" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C455" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D455" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D456" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B457" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D457" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D458" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C459" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D459" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B460" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D460" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B461" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D461" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B462" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D462" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B463" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C463" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D463" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D464" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B465" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D465" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D466" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B467" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D467" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D468" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B469" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C469" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D469" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D470" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B471" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C471" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D471" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D472" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B473" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C473" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D473" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D474" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B475" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C475" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D475" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D476" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B477" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C477" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D477" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D478" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B479" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D479" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D480" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C481" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D481" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D482" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C483" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D483" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D484" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D485" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D486" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D487" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D488" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D489" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D490" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B491" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D491" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D492" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B493" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C493" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D493" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C419">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
